--- a/asistencia 5.xlsx
+++ b/asistencia 5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="61">
   <si>
     <t>N°</t>
   </si>
@@ -45,6 +45,9 @@
     <t>.</t>
   </si>
   <si>
+    <t>SP</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -132,10 +135,10 @@
     <t>FRANCISCO ERNESTO URÍAS LOZANO</t>
   </si>
   <si>
-    <t>ASISTENCIA MENSUAL MEDIA M 6 F 4</t>
-  </si>
-  <si>
-    <t>INASISTENCIA MENSUAL MEDIA M 12 F 11</t>
+    <t>ASISTENCIA MENSUAL MEDIA M 7 F 4</t>
+  </si>
+  <si>
+    <t>INASISTENCIA MENSUAL MEDIA M 11 F 10</t>
   </si>
   <si>
     <t>LIAM DARKIEL AYALA RODRÍGUEZ</t>
@@ -189,10 +192,10 @@
     <t>JAYDEN ASAEL SALGADO SERRANO</t>
   </si>
   <si>
-    <t>ASISTENCIA MENSUAL MEDIA M 8 F 7</t>
-  </si>
-  <si>
-    <t>INASISTENCIA MENSUAL MEDIA M 10 F 7</t>
+    <t>ASISTENCIA MENSUAL MEDIA M 9 F 8</t>
+  </si>
+  <si>
+    <t>INASISTENCIA MENSUAL MEDIA M 9 F 6</t>
   </si>
 </sst>
 </file>
@@ -719,25 +722,25 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="L3" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>9</v>
@@ -757,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -787,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>9</v>
@@ -807,7 +810,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -834,10 +837,10 @@
         <v>9</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>9</v>
@@ -849,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -857,7 +860,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -869,7 +872,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>9</v>
@@ -884,10 +887,10 @@
         <v>9</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>9</v>
@@ -896,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="O6" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>3</v>
@@ -904,21 +907,21 @@
     </row>
     <row r="7" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O7" s="3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P7" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4">
         <v>4</v>
@@ -930,23 +933,23 @@
         <v>4</v>
       </c>
       <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4">
+        <v>4</v>
+      </c>
+      <c r="K9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="4">
-        <v>4</v>
-      </c>
-      <c r="H9" s="4">
-        <v>4</v>
-      </c>
-      <c r="I9" s="4">
-        <v>4</v>
-      </c>
-      <c r="J9" s="4">
-        <v>4</v>
-      </c>
-      <c r="K9" s="4">
-        <v>1</v>
-      </c>
       <c r="L9" s="4" t="s">
         <v>3</v>
       </c>
@@ -957,13 +960,13 @@
         <v>4</v>
       </c>
       <c r="P9" s="1">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
@@ -974,8 +977,8 @@
       <c r="E10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="4">
-        <v>2</v>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>3</v>
@@ -989,7 +992,7 @@
       <c r="J10" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L10" s="4">
@@ -1002,13 +1005,13 @@
         <v>3</v>
       </c>
       <c r="P10" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
@@ -1034,8 +1037,8 @@
       <c r="J11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>3</v>
+      <c r="K11" s="4">
+        <v>2</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>3</v>
@@ -1047,13 +1050,13 @@
         <v>3</v>
       </c>
       <c r="P11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" s="4">
         <v>4</v>
@@ -1098,19 +1101,19 @@
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
@@ -1120,12 +1123,12 @@
         <v>7</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4">
@@ -1140,7 +1143,7 @@
     </row>
     <row r="18" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
@@ -1155,13 +1158,13 @@
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -1292,7 +1295,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -1304,34 +1307,34 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="3">
         <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O3" s="3">
-        <v>8</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>3</v>
@@ -1342,7 +1345,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -1363,13 +1366,13 @@
         <v>9</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>9</v>
@@ -1384,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -1392,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -1413,13 +1416,13 @@
         <v>9</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>9</v>
@@ -1431,7 +1434,7 @@
         <v>9</v>
       </c>
       <c r="O5" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>3</v>
@@ -1442,7 +1445,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -1463,13 +1466,13 @@
         <v>9</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>9</v>
@@ -1484,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="P6" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -1492,7 +1495,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -1519,7 +1522,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>9</v>
@@ -1531,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="O7" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>3</v>
@@ -1542,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -1569,7 +1572,7 @@
         <v>9</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>9</v>
@@ -1581,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="O8" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
@@ -1592,7 +1595,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -1619,7 +1622,7 @@
         <v>9</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>9</v>
@@ -1634,7 +1637,7 @@
         <v>3</v>
       </c>
       <c r="P9" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1642,7 +1645,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -1669,7 +1672,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>9</v>
@@ -1681,7 +1684,7 @@
         <v>9</v>
       </c>
       <c r="O10" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
@@ -1692,7 +1695,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -1719,7 +1722,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>9</v>
@@ -1731,7 +1734,7 @@
         <v>9</v>
       </c>
       <c r="O11" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>3</v>
@@ -1742,7 +1745,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -1769,7 +1772,7 @@
         <v>9</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>9</v>
@@ -1784,7 +1787,7 @@
         <v>3</v>
       </c>
       <c r="P12" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1792,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -1819,7 +1822,7 @@
         <v>9</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>9</v>
@@ -1831,7 +1834,7 @@
         <v>9</v>
       </c>
       <c r="O13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>3</v>
@@ -1839,21 +1842,21 @@
     </row>
     <row r="14" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N14" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O14" s="3">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="P14" s="3">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16" s="4">
         <v>11</v>
@@ -1865,7 +1868,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G16" s="4">
         <v>11</v>
@@ -1879,8 +1882,8 @@
       <c r="J16" s="4">
         <v>11</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>3</v>
+      <c r="K16" s="4">
+        <v>11</v>
       </c>
       <c r="L16" s="4">
         <v>10</v>
@@ -1892,13 +1895,13 @@
         <v>11</v>
       </c>
       <c r="P16" s="1">
-        <v>115</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>3</v>
@@ -1909,8 +1912,8 @@
       <c r="E17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="4">
-        <v>1</v>
+      <c r="F17" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>3</v>
@@ -1924,8 +1927,8 @@
       <c r="J17" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="4">
-        <v>11</v>
+      <c r="K17" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="L17" s="4">
         <v>1</v>
@@ -1937,13 +1940,13 @@
         <v>3</v>
       </c>
       <c r="P17" s="1">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>3</v>
@@ -1988,7 +1991,7 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4">
         <v>11</v>
@@ -2033,19 +2036,19 @@
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
@@ -2055,48 +2058,48 @@
         <v>7</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H24" s="4">
         <v>4</v>
       </c>
       <c r="I24" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H25" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I25" s="4">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F26" s="4"/>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F27" s="4"/>
     </row>
@@ -2227,7 +2230,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>9</v>
@@ -2254,7 +2257,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>9</v>
@@ -2266,7 +2269,7 @@
         <v>9</v>
       </c>
       <c r="O3" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>3</v>
@@ -2277,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>9</v>
@@ -2304,7 +2307,7 @@
         <v>9</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>9</v>
@@ -2319,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="P4" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2327,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>9</v>
@@ -2354,7 +2357,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>9</v>
@@ -2369,7 +2372,7 @@
         <v>3</v>
       </c>
       <c r="P5" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -2377,7 +2380,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>9</v>
@@ -2404,7 +2407,7 @@
         <v>9</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>9</v>
@@ -2416,7 +2419,7 @@
         <v>9</v>
       </c>
       <c r="O6" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>3</v>
@@ -2427,7 +2430,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>9</v>
@@ -2454,7 +2457,7 @@
         <v>9</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>9</v>
@@ -2466,7 +2469,7 @@
         <v>9</v>
       </c>
       <c r="O7" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>3</v>
@@ -2477,7 +2480,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>9</v>
@@ -2504,7 +2507,7 @@
         <v>9</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>9</v>
@@ -2519,7 +2522,7 @@
         <v>3</v>
       </c>
       <c r="P8" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2527,7 +2530,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>9</v>
@@ -2554,7 +2557,7 @@
         <v>9</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>9</v>
@@ -2566,7 +2569,7 @@
         <v>9</v>
       </c>
       <c r="O9" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
@@ -2577,7 +2580,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>9</v>
@@ -2604,7 +2607,7 @@
         <v>9</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>9</v>
@@ -2619,7 +2622,7 @@
         <v>3</v>
       </c>
       <c r="P10" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -2627,7 +2630,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>9</v>
@@ -2654,7 +2657,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>9</v>
@@ -2666,7 +2669,7 @@
         <v>9</v>
       </c>
       <c r="O11" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>3</v>
@@ -2677,7 +2680,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -2704,7 +2707,7 @@
         <v>9</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>9</v>
@@ -2716,7 +2719,7 @@
         <v>9</v>
       </c>
       <c r="O12" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
@@ -2727,7 +2730,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>9</v>
@@ -2754,7 +2757,7 @@
         <v>9</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>9</v>
@@ -2766,7 +2769,7 @@
         <v>9</v>
       </c>
       <c r="O13" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>3</v>
@@ -2777,7 +2780,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>9</v>
@@ -2804,7 +2807,7 @@
         <v>9</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>9</v>
@@ -2819,7 +2822,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -2827,7 +2830,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>9</v>
@@ -2854,7 +2857,7 @@
         <v>9</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>9</v>
@@ -2866,7 +2869,7 @@
         <v>9</v>
       </c>
       <c r="O15" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>3</v>
@@ -2877,7 +2880,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>9</v>
@@ -2904,7 +2907,7 @@
         <v>9</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>9</v>
@@ -2919,7 +2922,7 @@
         <v>3</v>
       </c>
       <c r="P16" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -2927,7 +2930,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -2954,7 +2957,7 @@
         <v>9</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>9</v>
@@ -2969,7 +2972,7 @@
         <v>3</v>
       </c>
       <c r="P17" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -2977,7 +2980,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
@@ -3004,7 +3007,7 @@
         <v>9</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>9</v>
@@ -3019,7 +3022,7 @@
         <v>3</v>
       </c>
       <c r="P18" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -3027,7 +3030,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -3054,7 +3057,7 @@
         <v>9</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>9</v>
@@ -3066,7 +3069,7 @@
         <v>9</v>
       </c>
       <c r="O19" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>3</v>
@@ -3074,21 +3077,21 @@
     </row>
     <row r="20" spans="14:16" x14ac:dyDescent="0.25">
       <c r="N20" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O20" s="3">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="P20" s="3">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C22" s="4">
         <v>17</v>
@@ -3114,8 +3117,8 @@
       <c r="J22" s="4">
         <v>17</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>3</v>
+      <c r="K22" s="4">
+        <v>17</v>
       </c>
       <c r="L22" s="4">
         <v>17</v>
@@ -3127,13 +3130,13 @@
         <v>17</v>
       </c>
       <c r="P22" s="1">
-        <v>187</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>3</v>
@@ -3159,8 +3162,8 @@
       <c r="J23" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="4">
-        <v>17</v>
+      <c r="K23" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>3</v>
@@ -3172,13 +3175,13 @@
         <v>3</v>
       </c>
       <c r="P23" s="1">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>3</v>
@@ -3223,7 +3226,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C25" s="4">
         <v>17</v>
@@ -3268,19 +3271,19 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4" t="s">
@@ -3290,48 +3293,48 @@
         <v>7</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4">
+        <v>9</v>
+      </c>
+      <c r="H30" s="4">
         <v>8</v>
       </c>
-      <c r="H30" s="4">
-        <v>7</v>
-      </c>
       <c r="I30" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H31" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I31" s="4">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F32" s="4"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F33" s="4"/>
     </row>
